--- a/public/excel_templates/transaction_templates/dispatch_template.xlsx
+++ b/public/excel_templates/transaction_templates/dispatch_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\transaction_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B8D55A-17D3-4294-8802-AD247166BB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5791FC-8F4D-4497-B942-2279853DB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2148" windowWidth="14724" windowHeight="8880" xr2:uid="{C379980A-A545-4A32-8941-B19E20206574}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C379980A-A545-4A32-8941-B19E20206574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Dispatch Type:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Dispatch Number:</t>
   </si>
@@ -45,12 +42,6 @@
     <t>From Location:</t>
   </si>
   <si>
-    <t>To Location:</t>
-  </si>
-  <si>
-    <t>To Customer:</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -58,6 +49,12 @@
   </si>
   <si>
     <t>UOM (Box/Bag)</t>
+  </si>
+  <si>
+    <t>Dispatch Type (sales/transfer):</t>
+  </si>
+  <si>
+    <t>To Location/Customer:</t>
   </si>
 </sst>
 </file>
@@ -86,7 +83,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FFAEAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FFAEAAAA"/>
       </patternFill>
     </fill>
@@ -113,9 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,44 +438,42 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
